--- a/Open GL Basic Engine/Content/Red vs Blue Game.xlsx
+++ b/Open GL Basic Engine/Content/Red vs Blue Game.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>multi-select</t>
   </si>
@@ -201,13 +201,16 @@
     <t>attack(ing), firing</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>..6-9</t>
-  </si>
-  <si>
-    <t>..3-6</t>
+    <t>mostly done</t>
+  </si>
+  <si>
+    <t>genetics</t>
+  </si>
+  <si>
+    <t>side definition</t>
+  </si>
+  <si>
+    <t>vision radius</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -332,6 +335,7 @@
     <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -630,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -723,299 +727,352 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1"/>
-    <row r="9" spans="1:6" s="4" customFormat="1"/>
-    <row r="10" spans="1:6" s="4" customFormat="1"/>
-    <row r="11" spans="1:6" s="4" customFormat="1"/>
+    <row r="9" spans="1:6" s="7" customFormat="1">
+      <c r="A9" s="6">
+        <v>40063</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1">
+      <c r="A10" s="6">
+        <v>40065</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1">
+      <c r="A11" s="6">
+        <v>40063</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" s="4" customFormat="1"/>
-    <row r="13" spans="1:6" s="7" customFormat="1">
-      <c r="A13" s="6">
-        <v>40063</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:6" s="4" customFormat="1">
+      <c r="A13" s="9">
+        <v>40065</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1"/>
+    <row r="15" spans="1:6" s="4" customFormat="1">
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1">
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1">
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1"/>
+    <row r="19" spans="1:6" s="4" customFormat="1">
+      <c r="A19" s="9">
+        <v>40065</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1">
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1">
-      <c r="A15" s="6">
-        <v>40063</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="E19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1">
+      <c r="A20" s="9">
+        <v>40065</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1"/>
-    <row r="17" spans="1:8" s="4" customFormat="1">
-      <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1"/>
-    <row r="19" spans="1:8" s="4" customFormat="1">
-      <c r="E19" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1">
-      <c r="F20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1">
-      <c r="F21" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1">
-      <c r="A22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1"/>
-    <row r="24" spans="1:8" s="4" customFormat="1"/>
-    <row r="25" spans="1:8" s="4" customFormat="1">
-      <c r="E25" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1"/>
+    <row r="22" spans="1:6" s="4" customFormat="1"/>
+    <row r="23" spans="1:6" s="4" customFormat="1"/>
+    <row r="24" spans="1:6" s="4" customFormat="1"/>
+    <row r="25" spans="1:6" s="4" customFormat="1"/>
+    <row r="26" spans="1:6" s="4" customFormat="1"/>
+    <row r="27" spans="1:6" s="4" customFormat="1"/>
+    <row r="28" spans="1:6" s="4" customFormat="1"/>
+    <row r="29" spans="1:6" s="4" customFormat="1"/>
+    <row r="30" spans="1:6" s="4" customFormat="1"/>
+    <row r="31" spans="1:6" s="4" customFormat="1">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1"/>
+    <row r="33" spans="1:8" s="4" customFormat="1"/>
+    <row r="34" spans="1:8" s="4" customFormat="1">
+      <c r="A34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1">
-      <c r="F26" s="4" t="s">
+    <row r="35" spans="1:8" s="4" customFormat="1">
+      <c r="F35" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1">
-      <c r="F27" s="4" t="s">
+    <row r="36" spans="1:8" s="4" customFormat="1">
+      <c r="F36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1">
-      <c r="F28" s="4" t="s">
+    <row r="37" spans="1:8" s="4" customFormat="1">
+      <c r="F37" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1">
-      <c r="F29" s="4" t="s">
+    <row r="38" spans="1:8" s="4" customFormat="1">
+      <c r="F38" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1">
-      <c r="F30" s="4" t="s">
+    <row r="39" spans="1:8" s="4" customFormat="1">
+      <c r="F39" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1">
-      <c r="G31" s="4" t="s">
+    <row r="40" spans="1:8" s="4" customFormat="1">
+      <c r="G40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1">
-      <c r="H32" s="4" t="s">
+    <row r="41" spans="1:8" s="4" customFormat="1">
+      <c r="H41" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="5:8" s="4" customFormat="1">
-      <c r="H33" s="4" t="s">
+    <row r="42" spans="1:8" s="4" customFormat="1">
+      <c r="H42" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="5:8" s="4" customFormat="1">
-      <c r="H34" s="4" t="s">
+    <row r="43" spans="1:8" s="4" customFormat="1">
+      <c r="H43" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="5:8" s="4" customFormat="1"/>
-    <row r="36" spans="5:8" s="4" customFormat="1"/>
-    <row r="37" spans="5:8" s="4" customFormat="1"/>
-    <row r="38" spans="5:8" s="4" customFormat="1"/>
-    <row r="39" spans="5:8" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E39" s="4" t="s">
+    <row r="44" spans="1:8" s="4" customFormat="1"/>
+    <row r="45" spans="1:8" s="4" customFormat="1"/>
+    <row r="46" spans="1:8" s="4" customFormat="1"/>
+    <row r="47" spans="1:8" s="4" customFormat="1"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="5:8" s="4" customFormat="1">
-      <c r="G40" s="4" t="s">
+    <row r="49" spans="5:7" s="4" customFormat="1">
+      <c r="G49" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8" s="4" customFormat="1">
-      <c r="G41" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8" s="4" customFormat="1"/>
-    <row r="43" spans="5:8" s="4" customFormat="1"/>
-    <row r="44" spans="5:8" s="4" customFormat="1">
-      <c r="E44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8" s="4" customFormat="1">
-      <c r="F45" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="5:8" s="4" customFormat="1">
-      <c r="G46" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="5:8" s="4" customFormat="1">
-      <c r="G47" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="5:8" s="4" customFormat="1"/>
-    <row r="49" spans="5:7" s="4" customFormat="1">
-      <c r="F49" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="50" spans="5:7" s="4" customFormat="1">
       <c r="G50" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="5:7" s="4" customFormat="1"/>
     <row r="52" spans="5:7" s="4" customFormat="1"/>
     <row r="53" spans="5:7" s="4" customFormat="1">
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G53" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" s="4" customFormat="1">
+      <c r="F54" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" s="4" customFormat="1">
+      <c r="G55" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" s="4" customFormat="1">
+      <c r="G56" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" s="4" customFormat="1"/>
+    <row r="58" spans="5:7" s="4" customFormat="1">
+      <c r="F58" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" s="4" customFormat="1">
+      <c r="G59" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" s="4" customFormat="1"/>
+    <row r="61" spans="5:7" s="4" customFormat="1"/>
+    <row r="62" spans="5:7" s="4" customFormat="1">
+      <c r="G62" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="5:7" s="4" customFormat="1">
-      <c r="G54" s="4" t="s">
+    <row r="63" spans="5:7" s="4" customFormat="1">
+      <c r="G63" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="5:7" s="4" customFormat="1">
-      <c r="F55" s="4" t="s">
+    <row r="64" spans="5:7" s="4" customFormat="1">
+      <c r="F64" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="57" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="58" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="F58" s="4" t="s">
+    <row r="65" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="66" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="67" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F67" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="60" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="61" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="62" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="63" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E63" s="4" t="s">
+    <row r="68" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="69" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="70" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="71" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="72" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E72" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="F64" s="4" t="s">
+    <row r="73" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F73" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="66" spans="5:6" s="4" customFormat="1"/>
-    <row r="67" spans="5:6" s="4" customFormat="1"/>
-    <row r="68" spans="5:6" s="4" customFormat="1"/>
-    <row r="69" spans="5:6" s="4" customFormat="1"/>
-    <row r="70" spans="5:6" s="4" customFormat="1"/>
-    <row r="71" spans="5:6" s="4" customFormat="1"/>
-    <row r="72" spans="5:6" s="4" customFormat="1">
-      <c r="E72" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6" s="4" customFormat="1">
-      <c r="F73" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6" s="4" customFormat="1"/>
+    <row r="74" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="75" spans="5:6" s="4" customFormat="1"/>
     <row r="76" spans="5:6" s="4" customFormat="1">
       <c r="E76" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" s="4" customFormat="1">
+      <c r="F77" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" s="4" customFormat="1"/>
+    <row r="79" spans="5:6" s="4" customFormat="1"/>
+    <row r="80" spans="5:6" s="4" customFormat="1">
+      <c r="E80" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" s="4" customFormat="1"/>
+    <row r="82" spans="5:6" s="4" customFormat="1"/>
+    <row r="83" spans="5:6" s="4" customFormat="1"/>
+    <row r="84" spans="5:6" s="4" customFormat="1"/>
+    <row r="85" spans="5:6" s="4" customFormat="1">
+      <c r="E85" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="5:6" s="4" customFormat="1"/>
-    <row r="78" spans="5:6" s="4" customFormat="1">
-      <c r="F78" s="4" t="s">
+    <row r="86" spans="5:6" s="4" customFormat="1"/>
+    <row r="87" spans="5:6" s="4" customFormat="1">
+      <c r="F87" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="5:6" s="4" customFormat="1">
-      <c r="F79" s="4" t="s">
+    <row r="88" spans="5:6" s="4" customFormat="1">
+      <c r="F88" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="5:6" s="4" customFormat="1">
-      <c r="F80" s="4" t="s">
+    <row r="89" spans="5:6" s="4" customFormat="1">
+      <c r="F89" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="6:6" s="4" customFormat="1">
-      <c r="F81" s="4" t="s">
+    <row r="90" spans="5:6" s="4" customFormat="1">
+      <c r="F90" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="6:6" s="4" customFormat="1">
-      <c r="F82" s="4" t="s">
+    <row r="91" spans="5:6" s="4" customFormat="1">
+      <c r="F91" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="6:6" s="4" customFormat="1">
-      <c r="F83" s="4" t="s">
+    <row r="92" spans="5:6" s="4" customFormat="1">
+      <c r="F92" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="6:6" s="4" customFormat="1">
-      <c r="F84" s="4" t="s">
+    <row r="93" spans="5:6" s="4" customFormat="1">
+      <c r="F93" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="6:6" s="4" customFormat="1">
-      <c r="F85" s="4" t="s">
+    <row r="94" spans="5:6" s="4" customFormat="1">
+      <c r="F94" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="6:6" s="4" customFormat="1">
-      <c r="F86" s="4" t="s">
+    <row r="95" spans="5:6" s="4" customFormat="1">
+      <c r="F95" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="6:6" s="4" customFormat="1">
-      <c r="F87" s="4" t="s">
+    <row r="96" spans="5:6" s="4" customFormat="1">
+      <c r="F96" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1030,7 +1087,7 @@
   <dimension ref="B3:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Open GL Basic Engine/Content/Red vs Blue Game.xlsx
+++ b/Open GL Basic Engine/Content/Red vs Blue Game.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>multi-select</t>
   </si>
@@ -201,9 +201,6 @@
     <t>attack(ing), firing</t>
   </si>
   <si>
-    <t>mostly done</t>
-  </si>
-  <si>
     <t>genetics</t>
   </si>
   <si>
@@ -211,6 +208,15 @@
   </si>
   <si>
     <t>vision radius</t>
+  </si>
+  <si>
+    <t>line of sight</t>
+  </si>
+  <si>
+    <t>prelim functions for evasion</t>
+  </si>
+  <si>
+    <t>move out of line of sight? probably skipping phase 1 since its just too retarded</t>
   </si>
 </sst>
 </file>
@@ -325,7 +331,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -335,7 +341,6 @@
     <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -637,11 +642,12 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
@@ -773,17 +779,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1"/>
-    <row r="13" spans="1:6" s="4" customFormat="1">
-      <c r="A13" s="9">
+    <row r="13" spans="1:6" s="7" customFormat="1">
+      <c r="A13" s="6">
         <v>40065</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -804,37 +810,54 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1"/>
-    <row r="19" spans="1:6" s="4" customFormat="1">
-      <c r="A19" s="9">
+    <row r="19" spans="1:6" s="7" customFormat="1">
+      <c r="A19" s="6">
         <v>40065</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1">
+      <c r="A20" s="6">
+        <v>40065</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="4" customFormat="1">
-      <c r="A20" s="9">
-        <v>40065</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="1:6" s="4" customFormat="1"/>
+    <row r="22" spans="1:6" s="7" customFormat="1">
+      <c r="A22" s="6">
+        <v>40070</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="4" customFormat="1"/>
-    <row r="22" spans="1:6" s="4" customFormat="1"/>
-    <row r="23" spans="1:6" s="4" customFormat="1"/>
+    <row r="23" spans="1:6" s="4" customFormat="1">
+      <c r="E23" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="24" spans="1:6" s="4" customFormat="1"/>
     <row r="25" spans="1:6" s="4" customFormat="1"/>
     <row r="26" spans="1:6" s="4" customFormat="1"/>
@@ -906,23 +929,26 @@
     <row r="46" spans="1:8" s="4" customFormat="1"/>
     <row r="47" spans="1:8" s="4" customFormat="1"/>
     <row r="48" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E48" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="5:7" s="4" customFormat="1">
+    <row r="49" spans="1:7" s="4" customFormat="1">
       <c r="G49" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="5:7" s="4" customFormat="1">
+    <row r="50" spans="1:7" s="4" customFormat="1">
       <c r="G50" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="5:7" s="4" customFormat="1"/>
-    <row r="52" spans="5:7" s="4" customFormat="1"/>
-    <row r="53" spans="5:7" s="4" customFormat="1">
+    <row r="51" spans="1:7" s="4" customFormat="1"/>
+    <row r="52" spans="1:7" s="4" customFormat="1"/>
+    <row r="53" spans="1:7" s="4" customFormat="1">
       <c r="E53" s="4" t="s">
         <v>25</v>
       </c>
@@ -930,45 +956,48 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="5:7" s="4" customFormat="1">
+    <row r="54" spans="1:7" s="4" customFormat="1">
+      <c r="A54" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="F54" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="5:7" s="4" customFormat="1">
+    <row r="55" spans="1:7" s="4" customFormat="1">
       <c r="G55" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="5:7" s="4" customFormat="1">
+    <row r="56" spans="1:7" s="4" customFormat="1">
       <c r="G56" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="5:7" s="4" customFormat="1"/>
-    <row r="58" spans="5:7" s="4" customFormat="1">
+    <row r="57" spans="1:7" s="4" customFormat="1"/>
+    <row r="58" spans="1:7" s="4" customFormat="1">
       <c r="F58" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="5:7" s="4" customFormat="1">
+    <row r="59" spans="1:7" s="4" customFormat="1">
       <c r="G59" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="5:7" s="4" customFormat="1"/>
-    <row r="61" spans="5:7" s="4" customFormat="1"/>
-    <row r="62" spans="5:7" s="4" customFormat="1">
+    <row r="60" spans="1:7" s="4" customFormat="1"/>
+    <row r="61" spans="1:7" s="4" customFormat="1"/>
+    <row r="62" spans="1:7" s="4" customFormat="1">
       <c r="G62" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="5:7" s="4" customFormat="1">
+    <row r="63" spans="1:7" s="4" customFormat="1">
       <c r="G63" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="5:7" s="4" customFormat="1">
+    <row r="64" spans="1:7" s="4" customFormat="1">
       <c r="F64" s="4" t="s">
         <v>33</v>
       </c>
@@ -976,44 +1005,48 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="66" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="67" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="65" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="66" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="67" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="F67" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="69" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="70" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="71" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="72" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="68" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G68" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="70" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="71" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="72" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="E72" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="73" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="F73" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="5:6" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="75" spans="5:6" s="4" customFormat="1"/>
-    <row r="76" spans="5:6" s="4" customFormat="1">
+    <row r="74" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="75" spans="5:7" s="4" customFormat="1"/>
+    <row r="76" spans="5:7" s="4" customFormat="1">
       <c r="E76" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="5:6" s="4" customFormat="1">
+    <row r="77" spans="5:7" s="4" customFormat="1">
       <c r="F77" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="5:6" s="4" customFormat="1"/>
-    <row r="79" spans="5:6" s="4" customFormat="1"/>
-    <row r="80" spans="5:6" s="4" customFormat="1">
+    <row r="78" spans="5:7" s="4" customFormat="1"/>
+    <row r="79" spans="5:7" s="4" customFormat="1"/>
+    <row r="80" spans="5:7" s="4" customFormat="1">
       <c r="E80" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="5:6" s="4" customFormat="1"/>

--- a/Open GL Basic Engine/Content/Red vs Blue Game.xlsx
+++ b/Open GL Basic Engine/Content/Red vs Blue Game.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>multi-select</t>
   </si>
@@ -36,42 +36,12 @@
     <t>entities need to die</t>
   </si>
   <si>
-    <t>maybe look into alternate path finding algorithm</t>
-  </si>
-  <si>
     <t>take cover</t>
   </si>
   <si>
     <t>move to position</t>
   </si>
   <si>
-    <t>retreat</t>
-  </si>
-  <si>
-    <t>assist</t>
-  </si>
-  <si>
-    <t>id targets</t>
-  </si>
-  <si>
-    <t>id friendlies</t>
-  </si>
-  <si>
-    <t>get flag</t>
-  </si>
-  <si>
-    <t>bring flag back</t>
-  </si>
-  <si>
-    <t>seek cover</t>
-  </si>
-  <si>
-    <t>check my ammo</t>
-  </si>
-  <si>
-    <t>seek more ammo</t>
-  </si>
-  <si>
     <t>state machine needs to be added</t>
   </si>
   <si>
@@ -81,9 +51,6 @@
     <t>look around</t>
   </si>
   <si>
-    <t>goal list/subgoals etc</t>
-  </si>
-  <si>
     <t>smooth movement</t>
   </si>
   <si>
@@ -99,36 +66,21 @@
     <t>fuzzy logic</t>
   </si>
   <si>
-    <t>neural network</t>
-  </si>
-  <si>
     <t>store a target entity</t>
   </si>
   <si>
-    <t>remember x moves of target to predict where it will move to</t>
-  </si>
-  <si>
     <t>move toward target entity</t>
   </si>
   <si>
     <t>Chase Phase 1</t>
   </si>
   <si>
-    <t>Chase Phase 2</t>
-  </si>
-  <si>
     <t>Evade Phase 1</t>
   </si>
   <si>
-    <t>Evade Phase 2</t>
-  </si>
-  <si>
     <t>move within weapon range and start firing</t>
   </si>
   <si>
-    <t>remember x moves of target to predict where it will move to and move away</t>
-  </si>
-  <si>
     <t>run away from entity that has you targetted</t>
   </si>
   <si>
@@ -153,9 +105,6 @@
     <t>if enemy/attack</t>
   </si>
   <si>
-    <t>fsm control</t>
-  </si>
-  <si>
     <t>mouse inputs</t>
   </si>
   <si>
@@ -201,7 +150,7 @@
     <t>attack(ing), firing</t>
   </si>
   <si>
-    <t>genetics</t>
+    <t>mostly done</t>
   </si>
   <si>
     <t>side definition</t>
@@ -210,13 +159,61 @@
     <t>vision radius</t>
   </si>
   <si>
-    <t>line of sight</t>
-  </si>
-  <si>
-    <t>prelim functions for evasion</t>
-  </si>
-  <si>
-    <t>move out of line of sight? probably skipping phase 1 since its just too retarded</t>
+    <t>Only select one team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI: </t>
+  </si>
+  <si>
+    <t>Seed rand()</t>
+  </si>
+  <si>
+    <t>Entities need to be able to call for help</t>
+  </si>
+  <si>
+    <t>Entities need to be able to respond to calls for help</t>
+  </si>
+  <si>
+    <t>Changes:</t>
+  </si>
+  <si>
+    <t>Apply scoring/weight to each weapon to determine which weapon to use</t>
+  </si>
+  <si>
+    <t>Apply weight/scoring to see which entity they should attack</t>
+  </si>
+  <si>
+    <t>Evasion</t>
+  </si>
+  <si>
+    <t>Bullet needs to know who it's target is</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Find clear spot</t>
+  </si>
+  <si>
+    <t>Find optimal clear spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possibly implement ammo dumps for when the entities run out of ammo </t>
+  </si>
+  <si>
+    <t>They need to seek them out when they run low on ammo, or are out of ammo</t>
+  </si>
+  <si>
+    <t>All movement code needs to ignore dead entities</t>
+  </si>
+  <si>
+    <t>Implement a medic</t>
+  </si>
+  <si>
+    <t>Line of sight checking before firing/ check for obstacles &amp; friendlies</t>
+  </si>
+  <si>
+    <t>Knowledge map needs to be updated each pass for both teams</t>
   </si>
 </sst>
 </file>
@@ -639,36 +636,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1">
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1">
@@ -676,10 +675,10 @@
         <v>40063</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
@@ -690,10 +689,10 @@
         <v>40063</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>2</v>
@@ -704,18 +703,18 @@
         <v>40063</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1">
       <c r="F6" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1">
@@ -723,13 +722,13 @@
         <v>40063</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1"/>
@@ -738,13 +737,13 @@
         <v>40063</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>1</v>
@@ -755,13 +754,13 @@
         <v>40065</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="7" customFormat="1">
@@ -769,346 +768,349 @@
         <v>40063</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1"/>
     <row r="13" spans="1:6" s="7" customFormat="1">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>40065</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1"/>
-    <row r="15" spans="1:6" s="4" customFormat="1">
-      <c r="E15" s="4" t="s">
+    <row r="15" spans="1:6" s="7" customFormat="1">
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1">
-      <c r="F16" s="4" t="s">
+    <row r="16" spans="1:6" s="7" customFormat="1">
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1">
-      <c r="F17" s="4" t="s">
+    <row r="17" spans="1:6" s="7" customFormat="1">
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1"/>
-    <row r="19" spans="1:6" s="7" customFormat="1">
+    <row r="19" spans="1:6" s="6" customFormat="1">
       <c r="A19" s="6">
         <v>40065</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1">
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="6" customFormat="1">
       <c r="A20" s="6">
         <v>40065</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1"/>
+    <row r="22" spans="1:6" s="4" customFormat="1">
+      <c r="E22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1">
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1">
+      <c r="E24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1">
+      <c r="E25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1">
+      <c r="E26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1">
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1">
+      <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1"/>
-    <row r="22" spans="1:6" s="7" customFormat="1">
-      <c r="A22" s="6">
-        <v>40070</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="4" customFormat="1">
-      <c r="E23" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1"/>
-    <row r="25" spans="1:6" s="4" customFormat="1"/>
-    <row r="26" spans="1:6" s="4" customFormat="1"/>
-    <row r="27" spans="1:6" s="4" customFormat="1"/>
-    <row r="28" spans="1:6" s="4" customFormat="1"/>
-    <row r="29" spans="1:6" s="4" customFormat="1"/>
-    <row r="30" spans="1:6" s="4" customFormat="1"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1">
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1">
+      <c r="E30" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="31" spans="1:6" s="4" customFormat="1">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" s="4" customFormat="1"/>
-    <row r="33" spans="1:8" s="4" customFormat="1"/>
-    <row r="34" spans="1:8" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="E31" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1">
+      <c r="E32" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1"/>
+    <row r="34" spans="1:6" s="4" customFormat="1">
       <c r="E34" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1">
+      <c r="D35" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="4" customFormat="1">
+      <c r="E36" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1">
+      <c r="E37" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1">
+      <c r="E38" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="4" customFormat="1">
+      <c r="F39" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1">
+      <c r="E40" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="4" customFormat="1">
+      <c r="D41" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="4" customFormat="1">
+      <c r="E42" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="4" customFormat="1"/>
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:6" s="6" customFormat="1">
+      <c r="A45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="6" customFormat="1">
+      <c r="F46" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="6" customFormat="1">
+      <c r="F47" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="6" customFormat="1">
+      <c r="F48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" s="6" customFormat="1">
+      <c r="F49" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" s="6" customFormat="1">
+      <c r="F50" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" s="6" customFormat="1">
+      <c r="G51" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" s="6" customFormat="1">
+      <c r="H52" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" s="6" customFormat="1">
+      <c r="H53" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" s="6" customFormat="1">
+      <c r="H54" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" s="4" customFormat="1"/>
+    <row r="56" spans="5:8" s="4" customFormat="1"/>
+    <row r="57" spans="5:8" s="4" customFormat="1"/>
+    <row r="58" spans="5:8" s="4" customFormat="1"/>
+    <row r="59" spans="5:8" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E59" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" s="6" customFormat="1">
+      <c r="G60" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" s="6" customFormat="1">
+      <c r="G61" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" s="4" customFormat="1"/>
+    <row r="63" spans="5:8" s="4" customFormat="1"/>
+    <row r="64" spans="5:8" s="4" customFormat="1">
+      <c r="E64" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" s="4" customFormat="1">
+      <c r="F65" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1">
-      <c r="F35" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="4" customFormat="1">
-      <c r="F36" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="4" customFormat="1">
-      <c r="F37" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1">
-      <c r="F38" s="4" t="s">
+    <row r="66" spans="5:7" s="6" customFormat="1">
+      <c r="G66" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" s="4" customFormat="1">
+      <c r="G67" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" s="4" customFormat="1"/>
+    <row r="69" spans="5:7" s="4" customFormat="1">
+      <c r="F69" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1">
-      <c r="F39" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1">
-      <c r="G40" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="4" customFormat="1">
-      <c r="H41" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="4" customFormat="1">
-      <c r="H42" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1">
-      <c r="H43" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1"/>
-    <row r="45" spans="1:8" s="4" customFormat="1"/>
-    <row r="46" spans="1:8" s="4" customFormat="1"/>
-    <row r="47" spans="1:8" s="4" customFormat="1"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="4" customFormat="1">
-      <c r="G49" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="4" customFormat="1">
-      <c r="G50" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="4" customFormat="1"/>
-    <row r="52" spans="1:7" s="4" customFormat="1"/>
-    <row r="53" spans="1:7" s="4" customFormat="1">
-      <c r="E53" s="4" t="s">
+    <row r="70" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G70" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G71" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="73" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E73" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F74" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="4" customFormat="1">
-      <c r="A54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="4" customFormat="1">
-      <c r="G55" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="4" customFormat="1">
-      <c r="G56" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="4" customFormat="1"/>
-    <row r="58" spans="1:7" s="4" customFormat="1">
-      <c r="F58" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="4" customFormat="1">
-      <c r="G59" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="4" customFormat="1"/>
-    <row r="61" spans="1:7" s="4" customFormat="1"/>
-    <row r="62" spans="1:7" s="4" customFormat="1">
-      <c r="G62" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="4" customFormat="1">
-      <c r="G63" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="4" customFormat="1">
-      <c r="F64" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="66" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="67" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="F67" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="G68" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="70" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="71" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="72" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E72" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="F73" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="75" spans="5:7" s="4" customFormat="1"/>
-    <row r="76" spans="5:7" s="4" customFormat="1">
-      <c r="E76" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7" s="4" customFormat="1">
-      <c r="F77" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    </row>
+    <row r="75" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="76" spans="5:7" s="4" customFormat="1"/>
+    <row r="77" spans="5:7" s="4" customFormat="1"/>
     <row r="78" spans="5:7" s="4" customFormat="1"/>
     <row r="79" spans="5:7" s="4" customFormat="1"/>
-    <row r="80" spans="5:7" s="4" customFormat="1">
-      <c r="E80" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6" s="4" customFormat="1"/>
-    <row r="82" spans="5:6" s="4" customFormat="1"/>
-    <row r="83" spans="5:6" s="4" customFormat="1"/>
-    <row r="84" spans="5:6" s="4" customFormat="1"/>
-    <row r="85" spans="5:6" s="4" customFormat="1">
-      <c r="E85" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6" s="4" customFormat="1"/>
-    <row r="87" spans="5:6" s="4" customFormat="1">
-      <c r="F87" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="5:6" s="4" customFormat="1">
-      <c r="F88" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6" s="4" customFormat="1">
-      <c r="F89" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6" s="4" customFormat="1">
-      <c r="F90" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6" s="4" customFormat="1">
-      <c r="F91" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="5:6" s="4" customFormat="1">
-      <c r="F92" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="5:6" s="4" customFormat="1">
-      <c r="F93" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="5:6" s="4" customFormat="1">
-      <c r="F94" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="5:6" s="4" customFormat="1">
-      <c r="F95" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="5:6" s="4" customFormat="1">
-      <c r="F96" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="80" spans="5:7" s="4" customFormat="1"/>
+    <row r="81" s="4" customFormat="1"/>
+    <row r="82" s="4" customFormat="1"/>
+    <row r="83" s="4" customFormat="1"/>
+    <row r="84" s="4" customFormat="1"/>
+    <row r="85" s="4" customFormat="1"/>
+    <row r="86" s="4" customFormat="1"/>
+    <row r="87" s="4" customFormat="1"/>
+    <row r="88" s="4" customFormat="1"/>
+    <row r="89" s="4" customFormat="1"/>
+    <row r="90" s="4" customFormat="1"/>
+    <row r="91" s="4" customFormat="1"/>
+    <row r="92" s="4" customFormat="1"/>
+    <row r="93" s="4" customFormat="1"/>
+    <row r="94" s="4" customFormat="1"/>
+    <row r="95" s="4" customFormat="1"/>
+    <row r="96" s="4" customFormat="1"/>
+    <row r="97" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Open GL Basic Engine/Content/Red vs Blue Game.xlsx
+++ b/Open GL Basic Engine/Content/Red vs Blue Game.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>multi-select</t>
   </si>
@@ -93,9 +93,6 @@
     <t>if cannot move any farther away in a straight line, try to move in a 90 degree direction</t>
   </si>
   <si>
-    <t>which weapon to use</t>
-  </si>
-  <si>
     <t>bool for attack move</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>attack(ing), firing</t>
   </si>
   <si>
-    <t>mostly done</t>
-  </si>
-  <si>
     <t>side definition</t>
   </si>
   <si>
@@ -214,13 +208,97 @@
   </si>
   <si>
     <t>Knowledge map needs to be updated each pass for both teams</t>
+  </si>
+  <si>
+    <t>find an exploration target MUST make sure there is no obstacle at the destination square</t>
+  </si>
+  <si>
+    <t>Tommiffle</t>
+  </si>
+  <si>
+    <t>run toward nearest friendly unit</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>manage all state changes in brain function</t>
+  </si>
+  <si>
+    <t>Brain Requirements:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pointer to the current board</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pointer to the board's bullets list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pointer to the board's object list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - weapons to use</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pointer to the owner of the brain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - extractBrainCorp()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - time since last update</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - for each state: all fuzzy info (desirable, somewhat desirable, undesirable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Corwin's wish list:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Doxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - State interface fuzzy logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - File loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - State queue (remembering previous states - short term memory)</t>
+  </si>
+  <si>
+    <t>Fuzzy Logic:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - enum { DESIRABLE, SOMEWHATDESIRABLE, UNDESIRABLE } ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - great, now define them for each state based on the inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - DAVE:</t>
+  </si>
+  <si>
+    <t>team that is not being controlled by the player should be completely automated</t>
+  </si>
+  <si>
+    <t>team that is being controlled by the player should not process anything other than mouse ai</t>
+  </si>
+  <si>
+    <t>map needs to be able to zoom out a little more</t>
+  </si>
+  <si>
+    <t>legend (art) for debug keys needs to be displayed (help button?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +336,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -328,16 +432,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="5" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -636,481 +747,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1">
+      <c r="A3" s="3">
+        <v>40063</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1">
+      <c r="A4" s="3">
+        <v>40063</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1">
+      <c r="A5" s="3">
+        <v>40063</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1">
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1">
+      <c r="A7" s="3">
+        <v>40063</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1">
+      <c r="A8" s="3">
+        <v>40063</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1">
-      <c r="C2" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1">
+      <c r="A9" s="3">
+        <v>40065</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1">
+      <c r="A10" s="3">
+        <v>40063</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1">
+      <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1">
+      <c r="A12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1">
+      <c r="A13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1">
+      <c r="A14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1">
+      <c r="A15" s="3">
+        <v>40065</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1">
+      <c r="A16" s="3">
+        <v>40065</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1">
+      <c r="A17" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1">
+      <c r="A18" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1">
+      <c r="A19" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1">
+      <c r="A20" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1">
+      <c r="A21" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1">
+      <c r="A22" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1">
+      <c r="A23" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1">
+      <c r="A24" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1">
+      <c r="A25" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1">
+      <c r="A26" s="3">
+        <v>40074</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1">
+      <c r="B27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1">
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1">
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1"/>
+    <row r="31" spans="1:5" s="1" customFormat="1">
+      <c r="E31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1">
+      <c r="E32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" s="1" customFormat="1">
+      <c r="E33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" s="1" customFormat="1"/>
+    <row r="35" spans="4:6" s="1" customFormat="1">
+      <c r="E35" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" s="1" customFormat="1"/>
+    <row r="37" spans="4:6" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="38" spans="4:6" s="1" customFormat="1">
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" s="1" customFormat="1"/>
+    <row r="40" spans="4:6" s="1" customFormat="1">
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" s="1" customFormat="1">
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" s="1" customFormat="1">
+      <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" s="1" customFormat="1"/>
+    <row r="44" spans="4:6" s="1" customFormat="1"/>
+    <row r="45" spans="4:6" s="1" customFormat="1">
+      <c r="D45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" s="1" customFormat="1">
+      <c r="E46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" s="1" customFormat="1">
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" s="1" customFormat="1">
+      <c r="D48" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1">
+      <c r="E49" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1"/>
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:8" s="7" customFormat="1">
+      <c r="A52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1">
+      <c r="F53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1">
-      <c r="A3" s="6">
-        <v>40063</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1">
-      <c r="A4" s="6">
-        <v>40063</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1">
-      <c r="A5" s="6">
-        <v>40063</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1">
-      <c r="F6" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1">
-      <c r="A7" s="6">
-        <v>40063</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1"/>
-    <row r="9" spans="1:6" s="7" customFormat="1">
-      <c r="A9" s="6">
-        <v>40063</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="7" customFormat="1">
-      <c r="A10" s="6">
-        <v>40065</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="7" customFormat="1">
-      <c r="A11" s="6">
-        <v>40063</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1"/>
-    <row r="13" spans="1:6" s="7" customFormat="1">
-      <c r="A13" s="7">
-        <v>40065</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1"/>
-    <row r="15" spans="1:6" s="7" customFormat="1">
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1">
-      <c r="B16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1">
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1"/>
-    <row r="19" spans="1:6" s="6" customFormat="1">
-      <c r="A19" s="6">
-        <v>40065</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="6" customFormat="1">
-      <c r="A20" s="6">
-        <v>40065</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1"/>
-    <row r="22" spans="1:6" s="4" customFormat="1">
-      <c r="E22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="4" customFormat="1">
-      <c r="D23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1">
-      <c r="E24" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1">
-      <c r="E25" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1">
-      <c r="E26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="4" customFormat="1">
-      <c r="D27" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="4" customFormat="1">
-      <c r="E28" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="4" customFormat="1">
-      <c r="E29" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="4" customFormat="1">
-      <c r="E30" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="4" customFormat="1">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="E31" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="4" customFormat="1">
-      <c r="E32" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1"/>
-    <row r="34" spans="1:6" s="4" customFormat="1">
-      <c r="E34" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="4" customFormat="1">
-      <c r="D35" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="4" customFormat="1">
-      <c r="E36" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="4" customFormat="1">
-      <c r="E37" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="4" customFormat="1">
-      <c r="E38" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="4" customFormat="1">
-      <c r="F39" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="4" customFormat="1">
-      <c r="E40" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="4" customFormat="1">
-      <c r="D41" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="4" customFormat="1">
-      <c r="E42" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="4" customFormat="1"/>
-    <row r="44" spans="1:6" s="4" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:6" s="6" customFormat="1">
-      <c r="A45" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="6" customFormat="1">
-      <c r="F46" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="6" customFormat="1">
-      <c r="F47" s="6" t="s">
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1">
+      <c r="F54" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="6" customFormat="1">
-      <c r="F48" s="6" t="s">
+    <row r="55" spans="1:8" s="3" customFormat="1">
+      <c r="F55" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="5:8" s="6" customFormat="1">
-      <c r="F49" s="6" t="s">
+    <row r="56" spans="1:8" s="3" customFormat="1">
+      <c r="F56" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="5:8" s="6" customFormat="1">
-      <c r="F50" s="6" t="s">
+    <row r="57" spans="1:8" s="3" customFormat="1">
+      <c r="F57" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="5:8" s="6" customFormat="1">
-      <c r="G51" s="6" t="s">
+    <row r="58" spans="1:8" s="3" customFormat="1">
+      <c r="G58" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="3" customFormat="1">
+      <c r="H59" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="5:8" s="6" customFormat="1">
-      <c r="H52" s="6" t="s">
+    <row r="60" spans="1:8" s="3" customFormat="1">
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="3" customFormat="1">
+      <c r="H61" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="5:8" s="6" customFormat="1">
-      <c r="H53" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="5:8" s="6" customFormat="1">
-      <c r="H54" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="5:8" s="4" customFormat="1"/>
-    <row r="56" spans="5:8" s="4" customFormat="1"/>
-    <row r="57" spans="5:8" s="4" customFormat="1"/>
-    <row r="58" spans="5:8" s="4" customFormat="1"/>
-    <row r="59" spans="5:8" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E59" s="6" t="s">
+    <row r="62" spans="1:8" s="1" customFormat="1"/>
+    <row r="63" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E63" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="5:8" s="6" customFormat="1">
-      <c r="G60" s="6" t="s">
+    <row r="64" spans="1:8" s="3" customFormat="1">
+      <c r="G64" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="5:8" s="6" customFormat="1">
-      <c r="G61" s="6" t="s">
+    <row r="65" spans="1:7" s="3" customFormat="1">
+      <c r="G65" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="5:8" s="4" customFormat="1"/>
-    <row r="63" spans="5:8" s="4" customFormat="1"/>
-    <row r="64" spans="5:8" s="4" customFormat="1">
-      <c r="E64" s="4" t="s">
+    <row r="66" spans="1:7" s="1" customFormat="1"/>
+    <row r="67" spans="1:7" s="6" customFormat="1">
+      <c r="E67" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="5:7" s="4" customFormat="1">
-      <c r="F65" s="4" t="s">
+    <row r="68" spans="1:7" s="6" customFormat="1">
+      <c r="F68" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="5:7" s="6" customFormat="1">
-      <c r="G66" s="6" t="s">
+    <row r="69" spans="1:7" s="3" customFormat="1">
+      <c r="G69" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="5:7" s="4" customFormat="1">
-      <c r="G67" s="4" t="s">
+    <row r="70" spans="1:7" s="1" customFormat="1">
+      <c r="G70" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="5:7" s="4" customFormat="1"/>
-    <row r="69" spans="5:7" s="4" customFormat="1">
-      <c r="F69" s="4" t="s">
+    <row r="71" spans="1:7" s="1" customFormat="1"/>
+    <row r="72" spans="1:7" s="8" customFormat="1">
+      <c r="A72" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G72" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="G70" s="4" t="s">
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G73" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="G71" s="4" t="s">
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="G74" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="73" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E73" s="4" t="s">
+    <row r="75" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E76" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="F74" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="5:7" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="76" spans="5:7" s="4" customFormat="1"/>
-    <row r="77" spans="5:7" s="4" customFormat="1"/>
-    <row r="78" spans="5:7" s="4" customFormat="1"/>
-    <row r="79" spans="5:7" s="4" customFormat="1"/>
-    <row r="80" spans="5:7" s="4" customFormat="1"/>
-    <row r="81" s="4" customFormat="1"/>
-    <row r="82" s="4" customFormat="1"/>
-    <row r="83" s="4" customFormat="1"/>
-    <row r="84" s="4" customFormat="1"/>
-    <row r="85" s="4" customFormat="1"/>
-    <row r="86" s="4" customFormat="1"/>
-    <row r="87" s="4" customFormat="1"/>
-    <row r="88" s="4" customFormat="1"/>
-    <row r="89" s="4" customFormat="1"/>
-    <row r="90" s="4" customFormat="1"/>
-    <row r="91" s="4" customFormat="1"/>
-    <row r="92" s="4" customFormat="1"/>
-    <row r="93" s="4" customFormat="1"/>
-    <row r="94" s="4" customFormat="1"/>
-    <row r="95" s="4" customFormat="1"/>
-    <row r="96" s="4" customFormat="1"/>
-    <row r="97" s="4" customFormat="1"/>
+    <row r="77" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F77" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:7" s="1" customFormat="1"/>
+    <row r="80" spans="1:7" s="1" customFormat="1"/>
+    <row r="81" s="1" customFormat="1"/>
+    <row r="82" s="1" customFormat="1"/>
+    <row r="83" s="1" customFormat="1"/>
+    <row r="84" s="1" customFormat="1"/>
+    <row r="85" s="1" customFormat="1"/>
+    <row r="86" s="1" customFormat="1"/>
+    <row r="87" s="1" customFormat="1"/>
+    <row r="88" s="1" customFormat="1"/>
+    <row r="89" s="1" customFormat="1"/>
+    <row r="90" s="1" customFormat="1"/>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1122,197 +1376,200 @@
   <dimension ref="B3:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:17">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="B4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="B5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="B6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="B7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="B8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="B9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="Q10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="B12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="B13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="B14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="B15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="B16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="1"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="Q21" s="1"/>
+      <c r="B21" s="9"/>
+      <c r="K21" s="11"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="B24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="B25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="B26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="B27" s="9"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="B28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="B29" s="9"/>
+      <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1321,12 +1578,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C3:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:11">
+      <c r="K3" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="E8" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="E9" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="E10" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="E11" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="E12" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="D22" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="D23" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="D24" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="D25" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>